--- a/Data/full_table 회귀분석.xlsx
+++ b/Data/full_table 회귀분석.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Daejeon_Science_Festival_Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB2FC6-4BD0-4416-8144-4175B01FAFD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="420" yWindow="1140" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상관분석" sheetId="2" r:id="rId1"/>
@@ -14,8 +20,15 @@
     <sheet name="회귀(3x)" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -191,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -881,6 +894,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -928,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,9 +977,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1029,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,23 +1221,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="21" max="21" width="14.875" customWidth="1"/>
-    <col min="23" max="23" width="16.375" customWidth="1"/>
+    <col min="21" max="21" width="14.8984375" customWidth="1"/>
+    <col min="23" max="23" width="16.3984375" customWidth="1"/>
     <col min="26" max="26" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1274,7 +1324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +1359,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1396,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1435,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1476,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1519,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1564,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1561,7 +1611,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1660,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1711,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1764,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1819,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1876,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1935,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1996,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2009,7 +2059,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2074,7 +2124,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2191,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2260,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2281,7 +2331,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2354,7 +2404,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2429,7 +2479,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2506,7 +2556,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -2585,7 +2635,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -2666,7 +2716,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2749,7 +2799,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -2834,7 +2884,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -2921,7 +2971,7 @@
       </c>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="28.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -3029,16 +3079,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -3127,7 +3177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3216,7 +3266,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3284,7 +3334,7 @@
         <v>27</v>
       </c>
       <c r="W3">
-        <v>0.23352273199999901</v>
+        <v>0.30467013390340669</v>
       </c>
       <c r="X3">
         <v>82</v>
@@ -3305,7 +3355,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3373,7 +3423,7 @@
         <v>31</v>
       </c>
       <c r="W4">
-        <v>-0.17100854399999901</v>
+        <v>-0.14603526563353411</v>
       </c>
       <c r="X4">
         <v>77</v>
@@ -3394,7 +3444,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3462,7 +3512,7 @@
         <v>47</v>
       </c>
       <c r="W5">
-        <v>-0.52386021799999904</v>
+        <v>-0.34377183141616152</v>
       </c>
       <c r="X5">
         <v>68</v>
@@ -3483,7 +3533,7 @@
         <v>13748.6363599999</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3551,7 +3601,7 @@
         <v>86</v>
       </c>
       <c r="W6">
-        <v>-0.19462700199999999</v>
+        <v>-0.16291863653596558</v>
       </c>
       <c r="X6">
         <v>96</v>
@@ -3572,7 +3622,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3640,7 +3690,7 @@
         <v>35</v>
       </c>
       <c r="W7">
-        <v>0.59380914799999995</v>
+        <v>1.4618969009594056</v>
       </c>
       <c r="X7">
         <v>36</v>
@@ -3661,7 +3711,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3729,7 +3779,7 @@
         <v>70</v>
       </c>
       <c r="W8">
-        <v>0.10623888099999999</v>
+        <v>0.1188671986672926</v>
       </c>
       <c r="X8">
         <v>43</v>
@@ -3750,7 +3800,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3818,7 +3868,7 @@
         <v>43</v>
       </c>
       <c r="W9">
-        <v>0.18819365800000001</v>
+        <v>0.23182087744312507</v>
       </c>
       <c r="X9">
         <v>53</v>
@@ -3839,7 +3889,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3907,7 +3957,7 @@
         <v>30</v>
       </c>
       <c r="W10">
-        <v>-0.44112632399999901</v>
+        <v>-0.30609830423403717</v>
       </c>
       <c r="X10">
         <v>62</v>
@@ -3928,7 +3978,7 @@
         <v>27097</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3996,7 +4046,7 @@
         <v>60</v>
       </c>
       <c r="W11">
-        <v>0.39859731100000001</v>
+        <v>0.66277939735026026</v>
       </c>
       <c r="X11">
         <v>62</v>
@@ -4017,7 +4067,7 @@
         <v>45056.333330000001</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4085,7 +4135,7 @@
         <v>60</v>
       </c>
       <c r="W12">
-        <v>-0.619630299</v>
+        <v>-0.38257514662256692</v>
       </c>
       <c r="X12">
         <v>62</v>
@@ -4106,7 +4156,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4174,7 +4224,7 @@
         <v>70</v>
       </c>
       <c r="W13">
-        <v>0.35802538499999997</v>
+        <v>0.5576939896976516</v>
       </c>
       <c r="X13">
         <v>85</v>
@@ -4195,7 +4245,7 @@
         <v>43333.333330000001</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4263,7 +4313,7 @@
         <v>70</v>
       </c>
       <c r="W14">
-        <v>-0.46981093099999999</v>
+        <v>-0.31964038456304927</v>
       </c>
       <c r="X14">
         <v>85</v>
@@ -4284,7 +4334,7 @@
         <v>29482.25</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4352,7 +4402,7 @@
         <v>72</v>
       </c>
       <c r="W15">
-        <v>0.22934310999999999</v>
+        <v>0.29759431522356672</v>
       </c>
       <c r="X15">
         <v>94</v>
@@ -4373,7 +4423,7 @@
         <v>38256</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4441,7 +4491,7 @@
         <v>99</v>
       </c>
       <c r="W16">
-        <v>-0.36219911700000001</v>
+        <v>-0.26589293182768714</v>
       </c>
       <c r="X16">
         <v>89</v>
@@ -4462,7 +4512,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4530,7 +4580,7 @@
         <v>111</v>
       </c>
       <c r="W17">
-        <v>0.44526527899999901</v>
+        <v>0.80266343825665865</v>
       </c>
       <c r="X17">
         <v>97</v>
@@ -4551,7 +4601,7 @@
         <v>50626</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4619,7 +4669,7 @@
         <v>262</v>
       </c>
       <c r="W18">
-        <v>-2.1641249999999999</v>
+        <v>-0.68395686011140522</v>
       </c>
       <c r="X18">
         <v>156</v>
@@ -4640,7 +4690,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4708,7 +4758,7 @@
         <v>404</v>
       </c>
       <c r="W19">
-        <v>0.52324195500000004</v>
+        <v>1.0974999999999999</v>
       </c>
       <c r="X19">
         <v>152</v>
@@ -4729,7 +4779,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4797,7 +4847,7 @@
         <v>449</v>
       </c>
       <c r="W20">
-        <v>0.211327183999999</v>
+        <v>0.26795292014302741</v>
       </c>
       <c r="X20">
         <v>91</v>
@@ -4818,7 +4868,7 @@
         <v>42552.5</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4886,7 +4936,7 @@
         <v>296</v>
       </c>
       <c r="W21">
-        <v>0.236260678999999</v>
+        <v>0.30934727689324953</v>
       </c>
       <c r="X21">
         <v>62</v>
@@ -4907,7 +4957,7 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4975,7 +5025,7 @@
         <v>186</v>
       </c>
       <c r="W22">
-        <v>3.1026087000000001E-2</v>
+        <v>3.2019527604278841E-2</v>
       </c>
       <c r="X22">
         <v>46</v>
@@ -4996,7 +5046,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5064,7 +5114,7 @@
         <v>280</v>
       </c>
       <c r="W23">
-        <v>4.1666666999999998E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="X23">
         <v>49</v>
@@ -5092,28 +5142,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -5121,7 +5171,7 @@
         <v>0.8779312473610047</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -5129,7 +5179,7 @@
         <v>0.77076327509284959</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5187,7 @@
         <v>0.69912679855936499</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5145,7 +5195,7 @@
         <v>7767.5279952459978</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -5153,12 +5203,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
@@ -5176,7 +5226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -5196,7 +5246,7 @@
         <v>1.1459006713796009E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -5212,7 +5262,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -5226,8 +5276,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>46</v>
@@ -5254,7 +5304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5283,7 +5333,7 @@
         <v>81390.232054855296</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -5312,7 +5362,7 @@
         <v>1075.9706786887702</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -5341,7 +5391,7 @@
         <v>-1471.260494164419</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -5370,7 +5420,7 @@
         <v>87.725009957264092</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -5399,7 +5449,7 @@
         <v>-155.80909268330061</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -5436,28 +5486,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E18" sqref="E18:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -5465,7 +5515,7 @@
         <v>0.87692263092215494</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -5473,7 +5523,7 @@
         <v>0.76899330062343396</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5481,7 +5531,7 @@
         <v>0.7146387831230655</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5489,7 +5539,7 @@
         <v>7564.6449278677683</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -5497,12 +5547,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
@@ -5520,7 +5570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -5540,7 +5590,7 @@
         <v>2.9374826431091045E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -5556,7 +5606,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -5570,8 +5620,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>46</v>
@@ -5598,7 +5648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5627,7 +5677,7 @@
         <v>78663.420106790334</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5706,7 @@
         <v>1063.3254494085118</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -5685,7 +5735,7 @@
         <v>-1495.4781136908377</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -5714,7 +5764,7 @@
         <v>85.781590534504943</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -5750,31 +5800,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E20"/>
+      <selection activeCell="C6" sqref="C6:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -5782,7 +5832,7 @@
         <v>0.86871402138985299</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -5790,7 +5840,7 @@
         <v>0.75466405095932998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -5798,7 +5848,7 @@
         <v>0.71377472611921833</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5806,7 +5856,7 @@
         <v>7576.0889217441463</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -5814,12 +5864,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>41</v>
@@ -5837,7 +5887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -5857,7 +5907,7 @@
         <v>1.0015208405479597E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -5873,7 +5923,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -5887,8 +5937,8 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>46</v>
@@ -5915,7 +5965,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5944,7 +5994,7 @@
         <v>79896.620220168581</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -5973,7 +6023,7 @@
         <v>-1351.2037716034954</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -6002,7 +6052,7 @@
         <v>80.301237353845551</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -6038,16 +6088,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -6061,7 +6111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6075,7 +6125,7 @@
         <v>18804.599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10</v>
       </c>
@@ -6089,7 +6139,7 @@
         <v>24533.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>10</v>
       </c>
@@ -6103,7 +6153,7 @@
         <v>20951</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -6117,7 +6167,7 @@
         <v>13748.6363599999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>11</v>
       </c>
@@ -6131,7 +6181,7 @@
         <v>11508.727269999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10</v>
       </c>
@@ -6145,7 +6195,7 @@
         <v>28333.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
@@ -6159,7 +6209,7 @@
         <v>31701.200000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6173,7 +6223,7 @@
         <v>39050.199999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6187,7 +6237,7 @@
         <v>27097</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6201,7 +6251,7 @@
         <v>45056.333330000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6215,7 +6265,7 @@
         <v>27818.9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6229,7 +6279,7 @@
         <v>43333.333330000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -6243,7 +6293,7 @@
         <v>29482.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>4</v>
       </c>
@@ -6257,7 +6307,7 @@
         <v>38256</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6271,7 +6321,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6285,7 +6335,7 @@
         <v>50626</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6299,7 +6349,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6313,7 +6363,7 @@
         <v>33560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>4</v>
       </c>
@@ -6327,7 +6377,7 @@
         <v>42552.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>4</v>
       </c>
@@ -6341,7 +6391,7 @@
         <v>55716</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>4</v>
       </c>
@@ -6355,7 +6405,7 @@
         <v>57500</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>4</v>
       </c>
